--- a/Bloodstained/game summary.xlsx
+++ b/Bloodstained/game summary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HGM\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HGM\Desktop\BloodStainedGMS\Bloodstained\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54437A77-36C7-4BFA-8FE3-250EEEC3E4A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6841454E-6D82-4C80-A545-CDF2B6C93E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -451,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P4"/>
+  <dimension ref="A2:P18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -543,6 +543,22 @@
         <v>17</v>
       </c>
     </row>
+    <row r="17" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="12:13" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>-5</v>
+      </c>
+      <c r="M18">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -553,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{131E8DB1-BF60-45A6-A083-ACCA00C16B66}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
